--- a/aimms_model/energy_hub/results/FIT_0.19/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FIT_0.19/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>19410.459383650035</v>
+        <v>97052.296918273758</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>113134.25260950485</v>
+        <v>565671.26304773113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3709.3387882160555</v>
+        <v>18546.693941080375</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11816.244161437475</v>
+        <v>59081.220807207443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14290.406901269387</v>
+        <v>71452.03450634706</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3379.3738649993311</v>
+        <v>16896.869324996656</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36533.170275829085</v>
+        <v>182665.85137914543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34710.374943464696</v>
+        <v>173551.87471732346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>26499.172036865421</v>
+        <v>132495.86018435081</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>161483.66704677141</v>
+        <v>807418.33523408393</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>49000.781844734083</v>
+        <v>245003.90922367052</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>220939.27557284833</v>
+        <v>1104696.3779847582</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>220939.27557284833</v>
+        <v>1104696.3779847582</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.913220251934</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.913220251934</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4417.7851897133714</v>
+        <v>22088.92594717984</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/FIT_0.19/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FIT_0.19/results_costs.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>97052.296918273758</v>
+        <v>235971.2837028155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>565671.26304773113</v>
+        <v>494710.42096403294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>18546.693941080375</v>
+        <v>45094.112315620201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>59081.220807207443</v>
+        <v>51669.755078466864</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>71452.03450634706</v>
+        <v>67582.587191827741</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>16896.869324996656</v>
+        <v>37173.112514992637</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182665.85137914543</v>
+        <v>161486.60330553402</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>173551.87471732346</v>
+        <v>164153.26430413697</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>132495.86018435081</v>
+        <v>318238.50853342831</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>807418.33523408393</v>
+        <v>707866.77934803383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>245003.90922367052</v>
+        <v>231735.85149596471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1104696.3779847582</v>
+        <v>1018495.1562155813</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1104696.3779847582</v>
+        <v>1018495.1562155813</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610336</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610336</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>22088.92594717984</v>
+        <v>21283.906052732094</v>
       </c>
     </row>
   </sheetData>
